--- a/template_2.xlsx
+++ b/template_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\kursach_telegram\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{231E37E5-86C2-460D-B32E-812E324F808C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5789BB94-4CFB-4301-AC78-E2D017388798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7440" yWindow="-13380" windowWidth="11115" windowHeight="11010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -94,13 +94,25 @@
     <t>BIPTV</t>
   </si>
   <si>
+    <t>{% for city in cities %}{{city}}</t>
+  </si>
+  <si>
+    <t>{%+ endfor%}</t>
+  </si>
+  <si>
+    <t>{% for population_size in population_sizes %}{{population_size}}{%+ endfor%}</t>
+  </si>
+  <si>
+    <t>Пропускная способность внутризонового канала ШПД, Мбит/с</t>
+  </si>
+  <si>
     <r>
       <t>N</t>
     </r>
     <r>
       <rPr>
         <vertAlign val="subscript"/>
-        <sz val="18"/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -116,7 +128,7 @@
     <r>
       <rPr>
         <vertAlign val="subscript"/>
-        <sz val="18"/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -132,7 +144,7 @@
     <r>
       <rPr>
         <vertAlign val="subscript"/>
-        <sz val="18"/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -148,7 +160,7 @@
     <r>
       <rPr>
         <vertAlign val="subscript"/>
-        <sz val="18"/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -164,7 +176,7 @@
     <r>
       <rPr>
         <vertAlign val="subscript"/>
-        <sz val="18"/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -180,7 +192,7 @@
     <r>
       <rPr>
         <vertAlign val="subscript"/>
-        <sz val="18"/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -196,7 +208,7 @@
     <r>
       <rPr>
         <vertAlign val="subscript"/>
-        <sz val="18"/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -212,7 +224,7 @@
     <r>
       <rPr>
         <vertAlign val="subscript"/>
-        <sz val="18"/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -228,7 +240,7 @@
     <r>
       <rPr>
         <vertAlign val="subscript"/>
-        <sz val="18"/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -244,7 +256,7 @@
     <r>
       <rPr>
         <vertAlign val="subscript"/>
-        <sz val="18"/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -260,7 +272,7 @@
     <r>
       <rPr>
         <vertAlign val="subscript"/>
-        <sz val="18"/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -276,7 +288,7 @@
     <r>
       <rPr>
         <vertAlign val="subscript"/>
-        <sz val="18"/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -292,7 +304,7 @@
     <r>
       <rPr>
         <vertAlign val="subscript"/>
-        <sz val="18"/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -300,18 +312,6 @@
       </rPr>
       <t>СУМ</t>
     </r>
-  </si>
-  <si>
-    <t>{% for city in cities %}{{city}}</t>
-  </si>
-  <si>
-    <t>{%+ endfor%}</t>
-  </si>
-  <si>
-    <t>{% for population_size in population_sizes %}{{population_size}}{%+ endfor%}</t>
-  </si>
-  <si>
-    <t>Пропускная способность внутризонового канала ШПД, Мбит/с</t>
   </si>
 </sst>
 </file>
@@ -327,30 +327,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <vertAlign val="subscript"/>
-      <sz val="18"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
-      <sz val="18"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -358,11 +350,19 @@
     </font>
     <font>
       <vertAlign val="subscript"/>
-      <sz val="18"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -552,91 +552,106 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -920,792 +935,776 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="40" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="79.21875" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" customWidth="1"/>
-    <col min="3" max="4" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="2" max="26" width="6.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="61.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="19"/>
+    <row r="1" spans="1:26" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="33"/>
+      <c r="E1" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="25"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="25"/>
     </row>
-    <row r="2" spans="1:26" ht="54.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="1" t="s">
+    <row r="2" spans="1:26" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="Q2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="R2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="S2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="T2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="U2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="V2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="W2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="X2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Y2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="Z2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:26" ht="79.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="16"/>
+      <c r="C3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
     </row>
-    <row r="4" spans="1:26" ht="69.599999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:26" ht="79.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="1" t="e">
-        <f>C3*0.7</f>
+      <c r="B4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="13" t="e">
+        <f t="shared" ref="C4:Y4" si="0">ROUNDUP(C3*0.7,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D4" s="6">
-        <f t="shared" ref="D4:Z4" si="0">D3*0.7</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="6">
+      <c r="D4" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F4" s="6">
+      <c r="E4" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G4" s="6">
+      <c r="F4" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H4" s="6">
+      <c r="G4" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I4" s="6">
+      <c r="H4" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J4" s="6">
+      <c r="I4" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K4" s="6">
+      <c r="J4" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L4" s="6">
+      <c r="K4" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M4" s="6">
+      <c r="L4" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N4" s="6">
+      <c r="M4" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O4" s="6">
+      <c r="N4" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P4" s="6">
+      <c r="O4" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="P4" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R4" s="6">
+      <c r="Q4" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S4" s="6">
+      <c r="R4" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T4" s="6">
+      <c r="S4" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U4" s="6">
+      <c r="T4" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V4" s="6">
+      <c r="U4" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W4" s="6">
+      <c r="V4" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X4" s="6">
+      <c r="W4" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y4" s="6">
+      <c r="X4" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z4" s="6">
+      <c r="Y4" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="Z4" s="13">
+        <f>ROUNDUP(Z3*0.7,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:26" ht="79.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:26" ht="79.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="3" t="e">
-        <f>C4*0.3</f>
+      <c r="B5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="14" t="e">
+        <f t="shared" ref="C5:Y5" si="1">ROUNDUP(C4*0.3,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D5" s="3">
-        <f t="shared" ref="D5:Z5" si="1">D4*0.3</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="D5" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F5" s="3">
+      <c r="E5" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G5" s="3">
+      <c r="F5" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H5" s="3">
+      <c r="G5" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I5" s="3">
+      <c r="H5" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J5" s="3">
+      <c r="I5" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K5" s="3">
+      <c r="J5" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L5" s="3">
+      <c r="K5" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M5" s="3">
+      <c r="L5" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N5" s="3">
+      <c r="M5" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O5" s="3">
+      <c r="N5" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P5" s="3">
+      <c r="O5" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="P5" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R5" s="3">
+      <c r="Q5" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S5" s="3">
+      <c r="R5" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T5" s="3">
+      <c r="S5" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U5" s="3">
+      <c r="T5" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V5" s="3">
+      <c r="U5" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W5" s="3">
+      <c r="V5" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X5" s="3">
+      <c r="W5" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y5" s="3">
+      <c r="X5" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z5" s="3">
+      <c r="Y5" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="Z5" s="14">
+        <f>ROUNDUP(Z4*0.3,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:26" ht="86.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="3" t="e">
-        <f>(C3*7.5*0.7*0.3)/100</f>
+    <row r="6" spans="1:26" ht="79.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="14" t="e">
+        <f t="shared" ref="C6:Y6" si="2">(C3*7.5*0.7*0.3)/75</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D6" s="3">
-        <f t="shared" ref="D6:Z6" si="2">(D3*7.5*0.7*0.3)/100</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="D6" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F6" s="3">
+      <c r="E6" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G6" s="3">
+      <c r="F6" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H6" s="3">
+      <c r="G6" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I6" s="3">
+      <c r="H6" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J6" s="3">
+      <c r="I6" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K6" s="3">
+      <c r="J6" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L6" s="3">
+      <c r="K6" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M6" s="3">
+      <c r="L6" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N6" s="3">
+      <c r="M6" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O6" s="3">
+      <c r="N6" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P6" s="3">
+      <c r="O6" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="P6" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R6" s="3">
+      <c r="Q6" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S6" s="3">
+      <c r="R6" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T6" s="3">
+      <c r="S6" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U6" s="3">
+      <c r="T6" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V6" s="3">
+      <c r="U6" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W6" s="3">
+      <c r="V6" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X6" s="3">
+      <c r="W6" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y6" s="3">
+      <c r="X6" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z6" s="3">
+      <c r="Y6" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="Z6" s="14">
+        <f>(Z3*7.5*0.7*0.3)/75</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:26" ht="77.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:26" ht="79.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="3" t="e">
-        <f>C3*0.3</f>
+      <c r="B7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="14" t="e">
+        <f t="shared" ref="C7:Y7" si="3">ROUNDUP(C3*0.3,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D7" s="3">
-        <f t="shared" ref="D7:Z7" si="3">D3*0.3</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="3">
+      <c r="D7" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F7" s="3">
+      <c r="E7" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G7" s="3">
+      <c r="F7" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H7" s="3">
+      <c r="G7" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I7" s="3">
+      <c r="H7" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J7" s="3">
+      <c r="I7" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K7" s="3">
+      <c r="J7" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L7" s="3">
+      <c r="K7" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M7" s="3">
+      <c r="L7" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N7" s="3">
+      <c r="M7" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O7" s="3">
+      <c r="N7" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P7" s="3">
+      <c r="O7" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="P7" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R7" s="3">
+      <c r="Q7" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S7" s="3">
+      <c r="R7" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T7" s="3">
+      <c r="S7" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U7" s="3">
+      <c r="T7" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V7" s="3">
+      <c r="U7" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="W7" s="3">
+      <c r="V7" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X7" s="3">
+      <c r="W7" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Y7" s="3">
+      <c r="X7" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z7" s="3">
+      <c r="Y7" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="Z7" s="14">
+        <f>ROUNDUP(Z3*0.3,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:26" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:26" ht="79.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="4" t="e">
-        <f>C7*0.15</f>
+      <c r="B8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="15" t="e">
+        <f t="shared" ref="C8:Y8" si="4">ROUNDUP(C7*0.15,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D8" s="4">
-        <f t="shared" ref="D8:Z8" si="4">D7*0.15</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="4">
+      <c r="D8" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F8" s="4">
+      <c r="E8" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G8" s="4">
+      <c r="F8" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H8" s="4">
+      <c r="G8" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I8" s="4">
+      <c r="H8" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J8" s="4">
+      <c r="I8" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K8" s="4">
+      <c r="J8" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L8" s="4">
+      <c r="K8" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M8" s="4">
+      <c r="L8" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N8" s="4">
+      <c r="M8" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O8" s="4">
+      <c r="N8" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P8" s="4">
+      <c r="O8" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="P8" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R8" s="4">
+      <c r="Q8" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S8" s="4">
+      <c r="R8" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T8" s="4">
+      <c r="S8" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U8" s="4">
+      <c r="T8" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V8" s="4">
+      <c r="U8" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W8" s="4">
+      <c r="V8" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="X8" s="4">
+      <c r="W8" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Y8" s="4">
+      <c r="X8" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Z8" s="4">
+      <c r="Y8" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="Z8" s="15">
+        <f>ROUNDUP(Z7*0.15,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:26" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:26" ht="79.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="5" t="e">
+      <c r="B9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="16" t="e">
         <f>C8*0.064</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="16">
         <f t="shared" ref="D9:Z9" si="5">D8*0.064</f>
         <v>0</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="16">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="16">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="16">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="16">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="16">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="16">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="16">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="16">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="16">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N9" s="16">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O9" s="5">
+      <c r="O9" s="16">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P9" s="5">
+      <c r="P9" s="16">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q9" s="5">
+      <c r="Q9" s="16">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R9" s="5">
+      <c r="R9" s="16">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S9" s="5">
+      <c r="S9" s="16">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T9" s="5">
+      <c r="T9" s="16">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U9" s="5">
+      <c r="U9" s="16">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V9" s="5">
+      <c r="V9" s="16">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W9" s="5">
+      <c r="W9" s="16">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X9" s="5">
+      <c r="X9" s="16">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y9" s="5">
+      <c r="Y9" s="16">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -1714,640 +1713,640 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="55.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:26" ht="79.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="4" t="e">
-        <f>C3*0.01</f>
+      <c r="B10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="15" t="e">
+        <f t="shared" ref="C10:Y10" si="6">ROUNDUP(C3*0.01,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D10" s="4">
-        <f t="shared" ref="D10:Z10" si="6">D3*0.01</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="4">
+      <c r="D10" s="15">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F10" s="4">
+      <c r="E10" s="15">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G10" s="4">
+      <c r="F10" s="15">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H10" s="4">
+      <c r="G10" s="15">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I10" s="4">
+      <c r="H10" s="15">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J10" s="4">
+      <c r="I10" s="15">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K10" s="4">
+      <c r="J10" s="15">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L10" s="4">
+      <c r="K10" s="15">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M10" s="4">
+      <c r="L10" s="15">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N10" s="4">
+      <c r="M10" s="15">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O10" s="4">
+      <c r="N10" s="15">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P10" s="4">
+      <c r="O10" s="15">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="P10" s="15">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R10" s="4">
+      <c r="Q10" s="15">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S10" s="4">
+      <c r="R10" s="15">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="T10" s="4">
+      <c r="S10" s="15">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="U10" s="4">
+      <c r="T10" s="15">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V10" s="4">
+      <c r="U10" s="15">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W10" s="4">
+      <c r="V10" s="15">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="X10" s="4">
+      <c r="W10" s="15">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y10" s="4">
+      <c r="X10" s="15">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Z10" s="4">
+      <c r="Y10" s="15">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="Z10" s="15">
+        <f>ROUNDUP(Z3*0.01,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:26" ht="61.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:26" ht="79.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="6" t="e">
-        <f>C10*0.3</f>
+      <c r="B11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="13" t="e">
+        <f t="shared" ref="C11:Y11" si="7">ROUNDUP(C10*0.3,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D11" s="6">
-        <f t="shared" ref="D11:Z11" si="7">D10*0.3</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="6">
+      <c r="D11" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F11" s="6">
+      <c r="E11" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G11" s="6">
+      <c r="F11" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H11" s="6">
+      <c r="G11" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I11" s="6">
+      <c r="H11" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J11" s="6">
+      <c r="I11" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K11" s="6">
+      <c r="J11" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L11" s="6">
+      <c r="K11" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M11" s="6">
+      <c r="L11" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N11" s="6">
+      <c r="M11" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O11" s="6">
+      <c r="N11" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="P11" s="6">
+      <c r="O11" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q11" s="6">
+      <c r="P11" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R11" s="6">
+      <c r="Q11" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S11" s="6">
+      <c r="R11" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T11" s="6">
+      <c r="S11" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="U11" s="6">
+      <c r="T11" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="V11" s="6">
+      <c r="U11" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W11" s="6">
+      <c r="V11" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="X11" s="6">
+      <c r="W11" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y11" s="6">
+      <c r="X11" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Z11" s="6">
+      <c r="Y11" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
+      <c r="Z11" s="13">
+        <f>ROUNDUP(Z10*0.3,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:26" ht="67.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:26" ht="79.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="7" t="e">
+      <c r="B12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="18" t="e">
         <f>C3*0.01*0.3*10</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="18">
         <f t="shared" ref="D12:Z12" si="8">D3*0.01*0.3*10</f>
         <v>0</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M12" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N12" s="7">
+      <c r="N12" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O12" s="7">
+      <c r="O12" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P12" s="7">
+      <c r="P12" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Q12" s="7">
+      <c r="Q12" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R12" s="7">
+      <c r="R12" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="S12" s="7">
+      <c r="S12" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="T12" s="7">
+      <c r="T12" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U12" s="7">
+      <c r="U12" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V12" s="7">
+      <c r="V12" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="W12" s="7">
+      <c r="W12" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X12" s="7">
+      <c r="X12" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y12" s="7">
+      <c r="Y12" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Z12" s="7">
+      <c r="Z12" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="49.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:26" ht="79.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="10" t="e">
-        <f>C3*0.01</f>
+      <c r="B13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="19" t="e">
+        <f t="shared" ref="C13:Y13" si="9">ROUNDUP(C3*0.01,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D13" s="10">
-        <f t="shared" ref="D13:Z13" si="9">D3*0.01</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="10">
+      <c r="D13" s="19">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F13" s="10">
+      <c r="E13" s="19">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G13" s="10">
+      <c r="F13" s="19">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H13" s="10">
+      <c r="G13" s="19">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I13" s="10">
+      <c r="H13" s="19">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J13" s="10">
+      <c r="I13" s="19">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K13" s="10">
+      <c r="J13" s="19">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L13" s="10">
+      <c r="K13" s="19">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M13" s="10">
+      <c r="L13" s="19">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="N13" s="10">
+      <c r="M13" s="19">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O13" s="10">
+      <c r="N13" s="19">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="P13" s="10">
+      <c r="O13" s="19">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="10">
+      <c r="P13" s="19">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R13" s="10">
+      <c r="Q13" s="19">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="S13" s="10">
+      <c r="R13" s="19">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="T13" s="10">
+      <c r="S13" s="19">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U13" s="10">
+      <c r="T13" s="19">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V13" s="10">
+      <c r="U13" s="19">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="W13" s="10">
+      <c r="V13" s="19">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="X13" s="10">
+      <c r="W13" s="19">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Y13" s="10">
+      <c r="X13" s="19">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z13" s="10">
+      <c r="Y13" s="19">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
+      <c r="Z13" s="19">
+        <f>ROUNDUP(Z3*0.01,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:26" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:26" ht="79.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="9" t="e">
-        <f>C13*0.1</f>
+      <c r="B14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="20" t="e">
+        <f t="shared" ref="C14:Y14" si="10">ROUNDUP(C13*0.1,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D14" s="9">
-        <f t="shared" ref="D14:Z14" si="10">D13*0.1</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="9">
+      <c r="D14" s="20">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F14" s="9">
+      <c r="E14" s="20">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G14" s="9">
+      <c r="F14" s="20">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H14" s="9">
+      <c r="G14" s="20">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I14" s="9">
+      <c r="H14" s="20">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J14" s="9">
+      <c r="I14" s="20">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="K14" s="9">
+      <c r="J14" s="20">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L14" s="9">
+      <c r="K14" s="20">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M14" s="9">
+      <c r="L14" s="20">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N14" s="9">
+      <c r="M14" s="20">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="O14" s="9">
+      <c r="N14" s="20">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P14" s="9">
+      <c r="O14" s="20">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Q14" s="9">
+      <c r="P14" s="20">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="R14" s="9">
+      <c r="Q14" s="20">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="S14" s="9">
+      <c r="R14" s="20">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="T14" s="9">
+      <c r="S14" s="20">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="U14" s="9">
+      <c r="T14" s="20">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="V14" s="9">
+      <c r="U14" s="20">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W14" s="9">
+      <c r="V14" s="20">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="X14" s="9">
+      <c r="W14" s="20">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y14" s="9">
+      <c r="X14" s="20">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Z14" s="9">
+      <c r="Y14" s="20">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
+      <c r="Z14" s="20">
+        <f>ROUNDUP(Z13*0.1,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:26" ht="55.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="11" t="s">
+    <row r="15" spans="1:26" ht="79.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="12" t="e">
+      <c r="B15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="21" t="e">
         <f>C14*2</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="21">
         <f t="shared" ref="D15:Z15" si="11">D14*2</f>
         <v>0</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="21">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="21">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="21">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="21">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I15" s="21">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J15" s="21">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="K15" s="12">
+      <c r="K15" s="21">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="L15" s="12">
+      <c r="L15" s="21">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M15" s="12">
+      <c r="M15" s="21">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N15" s="12">
+      <c r="N15" s="21">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O15" s="12">
+      <c r="O15" s="21">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="P15" s="12">
+      <c r="P15" s="21">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Q15" s="12">
+      <c r="Q15" s="21">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="R15" s="12">
+      <c r="R15" s="21">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="S15" s="12">
+      <c r="S15" s="21">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="T15" s="12">
+      <c r="T15" s="21">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="U15" s="12">
+      <c r="U15" s="21">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="V15" s="12">
+      <c r="V15" s="21">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="W15" s="12">
+      <c r="W15" s="21">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="X15" s="12">
+      <c r="X15" s="21">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y15" s="12">
+      <c r="Y15" s="21">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Z15" s="12">
+      <c r="Z15" s="21">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="61.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="13" t="s">
+    <row r="16" spans="1:26" ht="79.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="23">
-        <f>19*147</f>
-        <v>2793</v>
+      <c r="C16" s="26">
+        <f>100*2+47*19</f>
+        <v>1093</v>
       </c>
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
@@ -2373,180 +2372,191 @@
       <c r="Y16" s="27"/>
       <c r="Z16" s="28"/>
     </row>
-    <row r="17" spans="1:26" ht="62.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:26" ht="79.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="3" t="e">
-        <f>C16+C15+C12+C9+C6</f>
+      <c r="B17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="14" t="e">
+        <f t="shared" ref="C17:Y17" si="12">C15+C12+C9+C6</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D17" s="3">
-        <f t="shared" ref="D17:Z17" si="12">D16+D15+D12+D9+D6</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="3">
+      <c r="D17" s="14">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F17" s="3">
+      <c r="E17" s="14">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G17" s="3">
+      <c r="F17" s="14">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="H17" s="3">
+      <c r="G17" s="14">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="I17" s="3">
+      <c r="H17" s="14">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="J17" s="3">
+      <c r="I17" s="14">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K17" s="3">
+      <c r="J17" s="14">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L17" s="3">
+      <c r="K17" s="14">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="M17" s="3">
+      <c r="L17" s="14">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N17" s="3">
+      <c r="M17" s="14">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O17" s="3">
+      <c r="N17" s="14">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="P17" s="3">
+      <c r="O17" s="14">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="P17" s="14">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="R17" s="3">
+      <c r="Q17" s="14">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="S17" s="3">
+      <c r="R17" s="14">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="T17" s="3">
+      <c r="S17" s="14">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U17" s="3">
+      <c r="T17" s="14">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="V17" s="3">
+      <c r="U17" s="14">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="W17" s="3">
+      <c r="V17" s="14">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="X17" s="3">
+      <c r="W17" s="14">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="X17" s="14">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="Y17" s="14">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
+      <c r="Z17" s="14">
+        <f>Z15+Z12+Z9+Z6</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:26" ht="62.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:26" ht="79.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="25" t="e">
-        <f>C17+D17</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="25">
+      <c r="B18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="22">
+        <f>D17</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="23"/>
+      <c r="E18" s="22">
         <f t="shared" ref="E18" si="13">E17+F17</f>
         <v>0</v>
       </c>
-      <c r="F18" s="26"/>
-      <c r="G18" s="25">
+      <c r="F18" s="23"/>
+      <c r="G18" s="22">
         <f t="shared" ref="G18" si="14">G17+H17</f>
         <v>0</v>
       </c>
-      <c r="H18" s="26"/>
-      <c r="I18" s="25">
+      <c r="H18" s="23"/>
+      <c r="I18" s="22">
         <f t="shared" ref="I18" si="15">I17+J17</f>
         <v>0</v>
       </c>
-      <c r="J18" s="26"/>
-      <c r="K18" s="25">
+      <c r="J18" s="23"/>
+      <c r="K18" s="22">
         <f t="shared" ref="K18" si="16">K17+L17</f>
         <v>0</v>
       </c>
-      <c r="L18" s="26"/>
-      <c r="M18" s="25">
+      <c r="L18" s="23"/>
+      <c r="M18" s="22">
         <f t="shared" ref="M18" si="17">M17+N17</f>
         <v>0</v>
       </c>
-      <c r="N18" s="26"/>
-      <c r="O18" s="25">
+      <c r="N18" s="23"/>
+      <c r="O18" s="22">
         <f t="shared" ref="O18" si="18">O17+P17</f>
         <v>0</v>
       </c>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="25">
+      <c r="P18" s="23"/>
+      <c r="Q18" s="22">
         <f t="shared" ref="Q18" si="19">Q17+R17</f>
         <v>0</v>
       </c>
-      <c r="R18" s="26"/>
-      <c r="S18" s="25">
+      <c r="R18" s="23"/>
+      <c r="S18" s="22">
         <f t="shared" ref="S18" si="20">S17+T17</f>
         <v>0</v>
       </c>
-      <c r="T18" s="26"/>
-      <c r="U18" s="25">
+      <c r="T18" s="23"/>
+      <c r="U18" s="22">
         <f t="shared" ref="U18" si="21">U17+V17</f>
         <v>0</v>
       </c>
-      <c r="V18" s="26"/>
-      <c r="W18" s="25">
+      <c r="V18" s="23"/>
+      <c r="W18" s="22">
         <f t="shared" ref="W18" si="22">W17+X17</f>
         <v>0</v>
       </c>
-      <c r="X18" s="26"/>
-      <c r="Y18" s="25">
+      <c r="X18" s="23"/>
+      <c r="Y18" s="22">
         <f t="shared" ref="Y18" si="23">Y17+Z17</f>
         <v>0</v>
       </c>
-      <c r="Z18" s="26"/>
+      <c r="Z18" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
     <mergeCell ref="M18:N18"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="C16:Z16"/>
@@ -2563,17 +2573,6 @@
     <mergeCell ref="K18:L18"/>
     <mergeCell ref="Y1:Z1"/>
     <mergeCell ref="W1:X1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="22" orientation="landscape" r:id="rId1"/>

--- a/template_2.xlsx
+++ b/template_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\kursach_telegram\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5789BB94-4CFB-4301-AC78-E2D017388798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96997829-FF27-40C5-A4E4-713CA3AFF52B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7440" yWindow="-13380" windowWidth="11115" windowHeight="11010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -552,7 +552,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -599,9 +599,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -617,18 +614,33 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -637,21 +649,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -935,8 +932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="40" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:Z9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -946,42 +943,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="32" t="s">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="24" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="25"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="22"/>
     </row>
     <row r="2" spans="1:26" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1708,7 +1705,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Z9" s="17">
+      <c r="Z9" s="16">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -1928,99 +1925,99 @@
       <c r="B12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="18" t="e">
+      <c r="C12" s="17" t="e">
         <f>C3*0.01*0.3*10</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="17">
         <f t="shared" ref="D12:Z12" si="8">D3*0.01*0.3*10</f>
         <v>0</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="17">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="17">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="17">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H12" s="17">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="17">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J12" s="18">
+      <c r="J12" s="17">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K12" s="18">
+      <c r="K12" s="17">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L12" s="18">
+      <c r="L12" s="17">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M12" s="18">
+      <c r="M12" s="17">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N12" s="18">
+      <c r="N12" s="17">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O12" s="18">
+      <c r="O12" s="17">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P12" s="18">
+      <c r="P12" s="17">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Q12" s="18">
+      <c r="Q12" s="17">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R12" s="18">
+      <c r="R12" s="17">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="S12" s="18">
+      <c r="S12" s="17">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="T12" s="18">
+      <c r="T12" s="17">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U12" s="18">
+      <c r="U12" s="17">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V12" s="18">
+      <c r="V12" s="17">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="W12" s="18">
+      <c r="W12" s="17">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X12" s="18">
+      <c r="X12" s="17">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y12" s="18">
+      <c r="Y12" s="17">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Z12" s="18">
+      <c r="Z12" s="17">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -2032,99 +2029,99 @@
       <c r="B13" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="19" t="e">
+      <c r="C13" s="18" t="e">
         <f t="shared" ref="C13:Y13" si="9">ROUNDUP(C3*0.01,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I13" s="19">
+      <c r="I13" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J13" s="19">
+      <c r="J13" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K13" s="19">
+      <c r="K13" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L13" s="19">
+      <c r="L13" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M13" s="19">
+      <c r="M13" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="N13" s="19">
+      <c r="N13" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O13" s="19">
+      <c r="O13" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="P13" s="19">
+      <c r="P13" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="19">
+      <c r="Q13" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R13" s="19">
+      <c r="R13" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="S13" s="19">
+      <c r="S13" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="T13" s="19">
+      <c r="T13" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U13" s="19">
+      <c r="U13" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V13" s="19">
+      <c r="V13" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="W13" s="19">
+      <c r="W13" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="X13" s="19">
+      <c r="X13" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Y13" s="19">
+      <c r="Y13" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z13" s="19">
+      <c r="Z13" s="18">
         <f>ROUNDUP(Z3*0.01,0)</f>
         <v>0</v>
       </c>
@@ -2136,99 +2133,99 @@
       <c r="B14" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="20" t="e">
+      <c r="C14" s="19" t="e">
         <f t="shared" ref="C14:Y14" si="10">ROUNDUP(C13*0.1,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="19">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="19">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="19">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="19">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="19">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I14" s="20">
+      <c r="I14" s="19">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J14" s="20">
+      <c r="J14" s="19">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="K14" s="20">
+      <c r="K14" s="19">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L14" s="20">
+      <c r="L14" s="19">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M14" s="20">
+      <c r="M14" s="19">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N14" s="20">
+      <c r="N14" s="19">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="O14" s="20">
+      <c r="O14" s="19">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P14" s="20">
+      <c r="P14" s="19">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Q14" s="20">
+      <c r="Q14" s="19">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="R14" s="20">
+      <c r="R14" s="19">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="S14" s="20">
+      <c r="S14" s="19">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="T14" s="20">
+      <c r="T14" s="19">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="U14" s="20">
+      <c r="U14" s="19">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="V14" s="20">
+      <c r="V14" s="19">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W14" s="20">
+      <c r="W14" s="19">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="X14" s="20">
+      <c r="X14" s="19">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y14" s="20">
+      <c r="Y14" s="19">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Z14" s="20">
+      <c r="Z14" s="19">
         <f>ROUNDUP(Z13*0.1,0)</f>
         <v>0</v>
       </c>
@@ -2240,99 +2237,99 @@
       <c r="B15" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="21" t="e">
+      <c r="C15" s="20" t="e">
         <f>C14*2</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="20">
         <f t="shared" ref="D15:Z15" si="11">D14*2</f>
         <v>0</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="20">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="20">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="G15" s="21">
+      <c r="G15" s="20">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="H15" s="21">
+      <c r="H15" s="20">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I15" s="21">
+      <c r="I15" s="20">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J15" s="21">
+      <c r="J15" s="20">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="K15" s="21">
+      <c r="K15" s="20">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="L15" s="21">
+      <c r="L15" s="20">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M15" s="21">
+      <c r="M15" s="20">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N15" s="21">
+      <c r="N15" s="20">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O15" s="21">
+      <c r="O15" s="20">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="P15" s="21">
+      <c r="P15" s="20">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Q15" s="21">
+      <c r="Q15" s="20">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="R15" s="21">
+      <c r="R15" s="20">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="S15" s="21">
+      <c r="S15" s="20">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="T15" s="21">
+      <c r="T15" s="20">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="U15" s="21">
+      <c r="U15" s="20">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="V15" s="21">
+      <c r="V15" s="20">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="W15" s="21">
+      <c r="W15" s="20">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="X15" s="21">
+      <c r="X15" s="20">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y15" s="21">
+      <c r="Y15" s="20">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Z15" s="21">
+      <c r="Z15" s="20">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -2344,33 +2341,33 @@
       <c r="B16" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="26">
+      <c r="C16" s="30">
         <f>100*2+47*19</f>
         <v>1093</v>
       </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="27"/>
-      <c r="S16" s="27"/>
-      <c r="T16" s="27"/>
-      <c r="U16" s="27"/>
-      <c r="V16" s="27"/>
-      <c r="W16" s="27"/>
-      <c r="X16" s="27"/>
-      <c r="Y16" s="27"/>
-      <c r="Z16" s="28"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="31"/>
+      <c r="S16" s="31"/>
+      <c r="T16" s="31"/>
+      <c r="U16" s="31"/>
+      <c r="V16" s="31"/>
+      <c r="W16" s="31"/>
+      <c r="X16" s="31"/>
+      <c r="Y16" s="31"/>
+      <c r="Z16" s="32"/>
     </row>
     <row r="17" spans="1:26" ht="79.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
@@ -2483,80 +2480,69 @@
       <c r="B18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="28">
         <f>D17</f>
         <v>0</v>
       </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="22">
+      <c r="D18" s="29"/>
+      <c r="E18" s="28">
         <f t="shared" ref="E18" si="13">E17+F17</f>
         <v>0</v>
       </c>
-      <c r="F18" s="23"/>
-      <c r="G18" s="22">
+      <c r="F18" s="29"/>
+      <c r="G18" s="28">
         <f t="shared" ref="G18" si="14">G17+H17</f>
         <v>0</v>
       </c>
-      <c r="H18" s="23"/>
-      <c r="I18" s="22">
+      <c r="H18" s="29"/>
+      <c r="I18" s="28">
         <f t="shared" ref="I18" si="15">I17+J17</f>
         <v>0</v>
       </c>
-      <c r="J18" s="23"/>
-      <c r="K18" s="22">
+      <c r="J18" s="29"/>
+      <c r="K18" s="28">
         <f t="shared" ref="K18" si="16">K17+L17</f>
         <v>0</v>
       </c>
-      <c r="L18" s="23"/>
-      <c r="M18" s="22">
+      <c r="L18" s="29"/>
+      <c r="M18" s="28">
         <f t="shared" ref="M18" si="17">M17+N17</f>
         <v>0</v>
       </c>
-      <c r="N18" s="23"/>
-      <c r="O18" s="22">
+      <c r="N18" s="29"/>
+      <c r="O18" s="28">
         <f t="shared" ref="O18" si="18">O17+P17</f>
         <v>0</v>
       </c>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="22">
+      <c r="P18" s="29"/>
+      <c r="Q18" s="28">
         <f t="shared" ref="Q18" si="19">Q17+R17</f>
         <v>0</v>
       </c>
-      <c r="R18" s="23"/>
-      <c r="S18" s="22">
+      <c r="R18" s="29"/>
+      <c r="S18" s="28">
         <f t="shared" ref="S18" si="20">S17+T17</f>
         <v>0</v>
       </c>
-      <c r="T18" s="23"/>
-      <c r="U18" s="22">
+      <c r="T18" s="29"/>
+      <c r="U18" s="28">
         <f t="shared" ref="U18" si="21">U17+V17</f>
         <v>0</v>
       </c>
-      <c r="V18" s="23"/>
-      <c r="W18" s="22">
+      <c r="V18" s="29"/>
+      <c r="W18" s="28">
         <f t="shared" ref="W18" si="22">W17+X17</f>
         <v>0</v>
       </c>
-      <c r="X18" s="23"/>
-      <c r="Y18" s="22">
+      <c r="X18" s="29"/>
+      <c r="Y18" s="28">
         <f t="shared" ref="Y18" si="23">Y17+Z17</f>
         <v>0</v>
       </c>
-      <c r="Z18" s="23"/>
+      <c r="Z18" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
     <mergeCell ref="M18:N18"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="C16:Z16"/>
@@ -2573,6 +2559,17 @@
     <mergeCell ref="K18:L18"/>
     <mergeCell ref="Y1:Z1"/>
     <mergeCell ref="W1:X1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="22" orientation="landscape" r:id="rId1"/>
